--- a/DataTable/StorageLevelTable.xlsx
+++ b/DataTable/StorageLevelTable.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityProject\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DA563E58-0FA3-9048-8561-E4A0C97420E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{51CE9521-CA70-4BA0-8639-012ACD4C7794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17180" yWindow="10880" windowWidth="16880" windowHeight="9700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StorageLevelTable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -676,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,9 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1050,17 +1047,17 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F17" sqref="D2:F17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="4"/>
-    <col min="3" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.5703125" style="4"/>
+    <col min="1" max="2" width="11.5546875" style="3"/>
+    <col min="3" max="3" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="4" customFormat="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1100,12 +1097,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1114,287 +1111,304 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>5000</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1">
+        <f t="shared" ref="F4:F17" si="0">ROUND(E4/15, 0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>A4+1</f>
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f t="shared" ref="A6:A17" si="0">A5+1</f>
+        <f t="shared" ref="A6:A17" si="1">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>1600</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>5000</v>
+        <v>220</v>
       </c>
       <c r="F7" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="3">
-        <v>3200</v>
+      <c r="B8" s="2">
+        <v>120</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>5000</v>
+        <v>350</v>
       </c>
       <c r="F8" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="3">
-        <v>6400</v>
+      <c r="B9" s="2">
+        <v>180</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F9" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="3">
-        <v>6400</v>
+      <c r="B10" s="2">
+        <v>250</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
       </c>
       <c r="E10" s="2">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="F10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="3">
-        <v>6400</v>
+      <c r="B11" s="2">
+        <v>350</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D11" s="2">
         <v>7</v>
       </c>
       <c r="E11" s="2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="3">
-        <v>6400</v>
+      <c r="B12" s="2">
+        <v>460</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="D12" s="2">
         <v>8</v>
       </c>
       <c r="E12" s="2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="F12" s="2">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="3">
-        <v>6400</v>
+      <c r="B13" s="2">
+        <v>600</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="D13" s="2">
         <v>9</v>
       </c>
       <c r="E13" s="2">
-        <v>5000</v>
+        <v>2200</v>
       </c>
       <c r="F13" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="3">
-        <v>6400</v>
+      <c r="B14" s="2">
+        <v>750</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
       </c>
       <c r="E14" s="2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="F14" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="3">
-        <v>6400</v>
+      <c r="B15" s="2">
+        <v>1000</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="D15" s="2">
         <v>11</v>
       </c>
       <c r="E15" s="2">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F15" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="3">
-        <v>6400</v>
+      <c r="B16" s="2">
+        <v>1300</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
         <v>12</v>
       </c>
       <c r="E16" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="F16" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="3">
-        <v>6400</v>
+      <c r="B17" s="2">
+        <v>1700</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="D17" s="2">
         <v>13</v>
       </c>
       <c r="E17" s="2">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="F17" s="2">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="F5:F16"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/DataTable/StorageLevelTable.xlsx
+++ b/DataTable/StorageLevelTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityProject\ProjectF\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{51CE9521-CA70-4BA0-8639-012ACD4C7794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C4C8B511-0A3B-2049-BE4B-C14B9579986C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StorageLevelTable" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1047,28 +1047,31 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="3"/>
-    <col min="3" max="3" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="3" width="11.5703125" style="3"/>
+    <col min="4" max="4" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -1077,7 +1080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1085,10 +1088,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -1097,18 +1100,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>20</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>30</v>
@@ -1118,19 +1121,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <f>A4+1</f>
         <v>1</v>
       </c>
       <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>30</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>1.05</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
@@ -1140,19 +1143,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A17" si="1">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
         <v>50</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
@@ -1162,19 +1165,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
         <v>80</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>1.2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
       </c>
       <c r="E7" s="2">
         <v>220</v>
@@ -1184,19 +1187,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
         <v>120</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>1.3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4</v>
       </c>
       <c r="E8" s="2">
         <v>350</v>
@@ -1206,19 +1209,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
         <v>180</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>1.5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5</v>
       </c>
       <c r="E9" s="2">
         <v>500</v>
@@ -1228,19 +1231,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
         <v>250</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>1.6</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6</v>
       </c>
       <c r="E10" s="2">
         <v>700</v>
@@ -1250,19 +1253,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
         <v>350</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>1.7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>7</v>
       </c>
       <c r="E11" s="2">
         <v>1000</v>
@@ -1272,19 +1275,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
         <v>460</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>1.8</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8</v>
       </c>
       <c r="E12" s="2">
         <v>1500</v>
@@ -1294,19 +1297,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
         <v>600</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>1.9</v>
-      </c>
-      <c r="D13" s="2">
-        <v>9</v>
       </c>
       <c r="E13" s="2">
         <v>2200</v>
@@ -1316,19 +1319,19 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
         <v>750</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>2.5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>10</v>
       </c>
       <c r="E14" s="2">
         <v>3000</v>
@@ -1338,19 +1341,19 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
         <v>1000</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>2.7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>11</v>
       </c>
       <c r="E15" s="2">
         <v>4000</v>
@@ -1360,19 +1363,19 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
         <v>1300</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>12</v>
       </c>
       <c r="E16" s="2">
         <v>6000</v>
@@ -1382,19 +1385,19 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
         <v>1700</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>3.4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>13</v>
       </c>
       <c r="E17" s="2">
         <v>8500</v>
